--- a/biology/Botanique/Pôle_bois_du_Haut-Forez/Pôle_bois_du_Haut-Forez.xlsx
+++ b/biology/Botanique/Pôle_bois_du_Haut-Forez/Pôle_bois_du_Haut-Forez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%B4le_bois_du_Haut-Forez</t>
+          <t>Pôle_bois_du_Haut-Forez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le pôle bois du Haut-Forez est une Société Coopérative d'intérêt Collectif travaillant le bois en Forez en activité de 2007 à 2013.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%B4le_bois_du_Haut-Forez</t>
+          <t>Pôle_bois_du_Haut-Forez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce projet a été labellisé « Pôle d’Excellence
-Rurale » par l’État français en février 2007[3],[4],[5]. La société coopérative a été créée en 2007[6].
-La société valorise en circuit court la ressource forestière locale[7],[8].
-Elle a été portée à l'écran par Clément Gaumon dans son film "l'économie sociale et solidaire"[9].
+Rurale » par l’État français en février 2007. La société coopérative a été créée en 2007.
+La société valorise en circuit court la ressource forestière locale,.
+Elle a été portée à l'écran par Clément Gaumon dans son film "l'économie sociale et solidaire".
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%B4le_bois_du_Haut-Forez</t>
+          <t>Pôle_bois_du_Haut-Forez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fortement déficitaire, la coopérative a été placée en redressement judiciaire le 19 novembre 2010, le 13 avril 2011 en liquidation judiciaire avec poursuite d'activité.
-Le 3 juillet 2013 a été prononcée la clôture pour insuffisance d'actif[10]
+Le 3 juillet 2013 a été prononcée la clôture pour insuffisance d'actif
 </t>
         </is>
       </c>
